--- a/Case/day/Time_Registration_Daily_20220328.xlsx
+++ b/Case/day/Time_Registration_Daily_20220328.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://accobat-my.sharepoint.com/personal/tml_accobat_com/Documents/Skrivebord/Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreasme\Documents\Power_bi\Case\day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_96F66098B46095500746EB5A92A40243A2329652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48F2699-52B2-4950-B0D4-3FF7B248867B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554651A-BAE7-4E07-8DCE-572BC488C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="17508" windowHeight="17448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object19" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Crosstab showing:
  Registrerede timer,  PBI Kompensationstimer,  Ferie Total and  PBI Sygdom per  Medarbejder Medarbejdere by  Tid År - Kvartal - Måned - Uge - Dag (TARGIT)  DagSorted by:
@@ -226,22 +227,26 @@
       <sz val="9"/>
       <color rgb="FF005878"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF005878"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -328,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,23 +631,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.69921875"/>
+    <col min="1" max="1" width="45.6875"/>
     <col min="2" max="2" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -658,7 +663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -666,7 +671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -674,7 +679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -682,7 +687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -690,7 +695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -698,7 +703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -706,7 +711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -714,7 +719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -722,7 +727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -730,7 +735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -738,7 +743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -746,7 +751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -754,7 +759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -762,7 +767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -770,7 +775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -778,7 +783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -786,7 +791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -794,7 +799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -802,7 +807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -810,7 +815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -818,7 +823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -826,7 +831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -834,7 +839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -842,7 +847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -850,7 +855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -858,7 +863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -866,7 +871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -874,7 +879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -882,7 +887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -890,7 +895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -898,7 +903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -906,7 +911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -914,7 +919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -922,7 +927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -930,7 +935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -938,7 +943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -946,7 +951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -954,7 +959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -962,7 +967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -970,7 +975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -978,7 +983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -986,7 +991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -994,7 +999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
